--- a/final_results/1/gitlab/gitlab_languages.xlsx
+++ b/final_results/1/gitlab/gitlab_languages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -666,21 +666,2229 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>49</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>javascript</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>qml</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>lua</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>makefile</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>kotlin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>c#</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>stylus</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>erlang</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>dockerfile</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>shell</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>jsonnet</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>rust</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>28</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>haskell</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>typescript</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>scheme</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>emacs lisp</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>scala</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>matlab</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>glsl</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>perl</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>common lisp</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>tex</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>fortran</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ocaml</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>elixir</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>qt script</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>assembly</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>racket</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>objective-c</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>vala</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>vim script</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>pug</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>nix</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>plpgsql</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>gdscript</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>powershell</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>handlebars</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>crystal</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>bluespec</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>openscad</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>jupyter notebook</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>hcl</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/final_results/1/gitlab/gitlab_languages.xlsx
+++ b/final_results/1/gitlab/gitlab_languages.xlsx
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>

--- a/final_results/1/gitlab/gitlab_languages.xlsx
+++ b/final_results/1/gitlab/gitlab_languages.xlsx
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>

--- a/final_results/1/gitlab/gitlab_languages.xlsx
+++ b/final_results/1/gitlab/gitlab_languages.xlsx
@@ -8,13 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/1/results/gitlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFC0A5-ACFB-824B-B1FA-1B46C08A261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A21622E-AC38-BA45-9392-3E8FDB4B4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$9:$N$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$8:$N$8</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$9:$N$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$N$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -319,6 +355,3184 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>CI/Lenguaje</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-28E8-7A40-BF87-AD13D8DB3FB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1641253967"/>
+        <c:axId val="1621217583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1641253967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1621217583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1621217583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641253967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTALES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>c++</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ruby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rust</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E55B-F540-BE24-D3812B562FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1626280591"/>
+        <c:axId val="1626338607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1626280591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626338607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1626338607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626280591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DA0757-3B19-504A-91FF-7F85CB107520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915DF7EB-8719-364B-8852-29FF3B4DBAF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +3823,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O33" si="0">SUM(B2:N2)</f>
         <v>90</v>
       </c>
     </row>
@@ -753,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -801,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUM(B4:N4)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -849,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -897,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -945,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -993,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUM(B8:N8)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -1041,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUM(B9:N9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -1089,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(B10:N10)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -1137,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUM(B11:N11)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -1185,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUM(B12:N12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1233,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(B13:N13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -1281,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>SUM(B14:N14)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -1329,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>SUM(B15:N15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1377,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>SUM(B16:N16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1425,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>SUM(B17:N17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1473,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f>SUM(B18:N18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1521,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f>SUM(B19:N19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1569,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>SUM(B20:N20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1617,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f>SUM(B21:N21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1665,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f>SUM(B22:N22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1713,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f>SUM(B23:N23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1761,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>SUM(B24:N24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1809,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f>SUM(B25:N25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1857,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f>SUM(B26:N26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1905,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f>SUM(B27:N27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1953,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f>SUM(B28:N28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2001,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f>SUM(B29:N29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2049,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f>SUM(B30:N30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2097,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>SUM(B31:N31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2145,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f>SUM(B32:N32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2193,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f>SUM(B33:N33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2241,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>SUM(B34:N34)</f>
+        <f t="shared" ref="O34:O53" si="1">SUM(B34:N34)</f>
         <v>1</v>
       </c>
     </row>
@@ -2289,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f>SUM(B35:N35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2337,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f>SUM(B36:N36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2385,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f>SUM(B37:N37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2433,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f>SUM(B38:N38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2481,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f>SUM(B39:N39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2529,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f>SUM(B40:N40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2577,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f>SUM(B41:N41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2625,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f>SUM(B42:N42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2673,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <f>SUM(B43:N43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2721,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <f>SUM(B44:N44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2769,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <f>SUM(B45:N45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2817,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <f>SUM(B46:N46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2865,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <f>SUM(B47:N47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2913,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <f>SUM(B48:N48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2961,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f>SUM(B49:N49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3009,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <f>SUM(B50:N50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3057,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <f>SUM(B51:N51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3105,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <f>SUM(B52:N52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3153,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f>SUM(B53:N53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3166,51 +6380,51 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:N54" si="0">SUM(C2:C53)</f>
+        <f t="shared" ref="C54:N54" si="2">SUM(C2:C53)</f>
         <v>37</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>488</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3219,5 +6433,6 @@
     <sortCondition descending="1" ref="O2:O53"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_results/1/gitlab/gitlab_languages.xlsx
+++ b/final_results/1/gitlab/gitlab_languages.xlsx
@@ -1,56 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/1/results/gitlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A21622E-AC38-BA45-9392-3E8FDB4B4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F706F2-5FF4-8D4A-9AA6-85452847E365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$9:$N$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$8:$N$8</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$B$9:$N$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$N$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -68,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Jenkins</t>
   </si>
@@ -86,9 +50,6 @@
   </si>
   <si>
     <t>Bamboo</t>
-  </si>
-  <si>
-    <t>Concourse</t>
   </si>
   <si>
     <t>GitLab CI</t>
@@ -517,42 +478,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -572,10 +545,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -587,9 +560,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -687,42 +657,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -742,10 +724,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -757,9 +739,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -857,42 +836,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -912,10 +903,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -927,9 +918,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1027,42 +1015,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1082,10 +1082,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1097,9 +1097,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1197,42 +1194,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$N$6</c:f>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1252,10 +1261,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1267,9 +1276,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1367,42 +1373,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$N$7</c:f>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,10 +1440,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1437,9 +1455,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1539,42 +1554,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$N$8</c:f>
+              <c:f>Sheet1!$B$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1594,10 +1621,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1609,9 +1636,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1711,42 +1735,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>Jenkins</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>c</c:v>
+                  <c:v>Travis</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>javascript</c:v>
+                  <c:v>Circle CI</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>c++</c:v>
+                  <c:v>GitHub Actions</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ruby</c:v>
+                  <c:v>Azure Pipelines</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rust</c:v>
+                  <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>go</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>java</c:v>
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$N$9</c:f>
+              <c:f>Sheet1!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1766,10 +1802,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1781,9 +1817,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2024,7 +2057,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2134,7 +2167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$9</c:f>
+              <c:f>Sheet1!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2151,7 +2184,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
@@ -3462,13 +3495,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -3504,7 +3537,7 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -3820,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3831,7 +3864,7 @@
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3868,16 +3901,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>65</v>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3898,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3916,16 +3946,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O33" si="0">SUM(B2:N2)</f>
+        <f>SUM(B2:M2)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3946,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3964,16 +3991,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:M3)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3994,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4012,16 +4036,13 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:M4)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4042,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4060,16 +4081,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:M5)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4090,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4108,16 +4126,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(B6:M6)</f>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4138,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4156,16 +4171,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:M7)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4186,130 +4198,121 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>SUM(B8:M8)</f>
         <v>29</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>SUM(B9:M9)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>SUM(B10:M10)</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4330,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4348,160 +4351,148 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:M11)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>SUM(B12:M12)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>SUM(B13:M13)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>SUM(B14:M14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>13</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4522,1915 +4513,1794 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>SUM(B15:M15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>SUM(B16:M16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>SUM(B17:M17)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>SUM(B18:M18)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>SUM(B19:M19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>SUM(B20:M20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>SUM(B21:M21)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>SUM(B22:M22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>SUM(B23:M23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>SUM(B24:M24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>SUM(B25:M25)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>SUM(B26:M26)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>SUM(B27:M27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>SUM(B28:M28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>SUM(B29:M29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>SUM(B30:M30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>SUM(B31:M31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>SUM(B32:M32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>SUM(B33:M33)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>6</v>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>SUM(B34:M34)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>5</v>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>SUM(B35:M35)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>SUM(B36:M36)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>SUM(B37:M37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>SUM(B38:M38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>SUM(B39:M39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>SUM(B40:M40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>SUM(B41:M41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>SUM(B42:M42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>SUM(B43:M43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>SUM(B44:M44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>SUM(B45:M45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>SUM(B46:M46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>SUM(B47:M47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>SUM(B48:M48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>SUM(B49:M49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>SUM(B50:M50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>SUM(B51:M51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>SUM(B52:M52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>SUM(B53:M53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <f>SUM(B2:B53)</f>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:M54" si="0">SUM(C2:C53)</f>
+        <v>37</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="E54">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>488</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O53" si="1">SUM(B34:N34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54">
-        <f>SUM(B2:B53)</f>
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ref="C54:N54" si="2">SUM(C2:C53)</f>
-        <v>37</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="2"/>
-        <v>488</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O53">
-    <sortCondition descending="1" ref="O2:O53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N53">
+    <sortCondition descending="1" ref="N2:N53"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
